--- a/data/Subset1_WithDialogActs/Math AU 4 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math AU 4 transcript.xlsx_with_dialog_acts.xlsx
@@ -1227,12 +1227,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1731,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1815,12 +1815,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2025,12 +2025,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3045,12 +3045,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3129,12 +3129,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3297,12 +3297,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3465,12 +3465,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3549,12 +3549,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3759,12 +3759,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4095,12 +4095,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4599,12 +4599,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5317,12 +5317,12 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5485,12 +5485,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -6749,12 +6749,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6963,12 +6963,12 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7005,12 +7005,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7635,12 +7635,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7761,12 +7761,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8727,12 +8727,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9231,12 +9231,12 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9529,12 +9529,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9571,12 +9571,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9949,12 +9949,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10537,12 +10537,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11125,12 +11125,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11713,12 +11713,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12011,12 +12011,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12267,12 +12267,12 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12309,12 +12309,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12351,12 +12351,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12771,12 +12771,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -12855,12 +12855,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12981,12 +12981,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13023,12 +13023,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13065,12 +13065,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13149,12 +13149,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13275,12 +13275,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13485,12 +13485,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13653,12 +13653,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13951,12 +13951,12 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13993,12 +13993,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15169,12 +15169,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15295,12 +15295,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15379,12 +15379,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15757,12 +15757,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16009,12 +16009,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16303,12 +16303,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16723,12 +16723,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17483,12 +17483,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17525,12 +17525,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17687,12 +17687,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18149,12 +18149,12 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18191,12 +18191,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18317,12 +18317,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18401,12 +18401,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18527,12 +18527,12 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18611,12 +18611,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18695,12 +18695,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19073,12 +19073,12 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19283,12 +19283,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19325,12 +19325,12 @@
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19497,12 +19497,12 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19539,12 +19539,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19581,12 +19581,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20211,12 +20211,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20673,12 +20673,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20925,12 +20925,12 @@
       <c r="H487" t="inlineStr"/>
       <c r="I487" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21009,12 +21009,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21219,12 +21219,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21899,12 +21899,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22025,12 +22025,12 @@
       <c r="H513" t="inlineStr"/>
       <c r="I513" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22067,12 +22067,12 @@
       <c r="H514" t="inlineStr"/>
       <c r="I514" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23163,12 +23163,12 @@
       <c r="H540" t="inlineStr"/>
       <c r="I540" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23247,12 +23247,12 @@
       <c r="H542" t="inlineStr"/>
       <c r="I542" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23331,12 +23331,12 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23373,12 +23373,12 @@
       <c r="H545" t="inlineStr"/>
       <c r="I545" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23415,12 +23415,12 @@
       <c r="H546" t="inlineStr"/>
       <c r="I546" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23625,12 +23625,12 @@
       <c r="H551" t="inlineStr"/>
       <c r="I551" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24549,12 +24549,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24801,12 +24801,12 @@
       <c r="H579" t="inlineStr"/>
       <c r="I579" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25599,12 +25599,12 @@
       <c r="H598" t="inlineStr"/>
       <c r="I598" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25683,12 +25683,12 @@
       <c r="H600" t="inlineStr"/>
       <c r="I600" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26577,12 +26577,12 @@
       <c r="H621" t="inlineStr"/>
       <c r="I621" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27597,12 +27597,12 @@
       <c r="H645" t="inlineStr"/>
       <c r="I645" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27849,12 +27849,12 @@
       <c r="H651" t="inlineStr"/>
       <c r="I651" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28101,12 +28101,12 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28651,12 +28651,12 @@
       <c r="H670" t="inlineStr"/>
       <c r="I670" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28945,12 +28945,12 @@
       <c r="H677" t="inlineStr"/>
       <c r="I677" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29587,12 +29587,12 @@
       <c r="H692" t="inlineStr"/>
       <c r="I692" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -30007,12 +30007,12 @@
       <c r="H702" t="inlineStr"/>
       <c r="I702" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30469,12 +30469,12 @@
       <c r="H713" t="inlineStr"/>
       <c r="I713" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30889,12 +30889,12 @@
       <c r="H723" t="inlineStr"/>
       <c r="I723" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31141,12 +31141,12 @@
       <c r="H729" t="inlineStr"/>
       <c r="I729" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31393,12 +31393,12 @@
       <c r="H735" t="inlineStr"/>
       <c r="I735" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -31645,12 +31645,12 @@
       <c r="H741" t="inlineStr"/>
       <c r="I741" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J741" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -32065,12 +32065,12 @@
       <c r="H751" t="inlineStr"/>
       <c r="I751" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32107,12 +32107,12 @@
       <c r="H752" t="inlineStr"/>
       <c r="I752" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32695,12 +32695,12 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32821,12 +32821,12 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32863,12 +32863,12 @@
       <c r="H770" t="inlineStr"/>
       <c r="I770" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J770" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -32947,12 +32947,12 @@
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J772" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33241,12 +33241,12 @@
       <c r="H779" t="inlineStr"/>
       <c r="I779" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -33745,12 +33745,12 @@
       <c r="H791" t="inlineStr"/>
       <c r="I791" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J791" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35005,12 +35005,12 @@
       <c r="H821" t="inlineStr"/>
       <c r="I821" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -35257,12 +35257,12 @@
       <c r="H827" t="inlineStr"/>
       <c r="I827" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J827" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -35341,12 +35341,12 @@
       <c r="H829" t="inlineStr"/>
       <c r="I829" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J829" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36055,12 +36055,12 @@
       <c r="H846" t="inlineStr"/>
       <c r="I846" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J846" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36311,12 +36311,12 @@
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -37625,12 +37625,12 @@
       <c r="H883" t="inlineStr"/>
       <c r="I883" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -38507,12 +38507,12 @@
       <c r="H904" t="inlineStr"/>
       <c r="I904" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39011,12 +39011,12 @@
       <c r="H916" t="inlineStr"/>
       <c r="I916" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -39095,12 +39095,12 @@
       <c r="H918" t="inlineStr"/>
       <c r="I918" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J918" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -39389,12 +39389,12 @@
       <c r="H925" t="inlineStr"/>
       <c r="I925" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J925" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39893,12 +39893,12 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J937" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39977,12 +39977,12 @@
       <c r="H939" t="inlineStr"/>
       <c r="I939" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -40271,12 +40271,12 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J946" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -40355,12 +40355,12 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J948" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -40523,12 +40523,12 @@
       <c r="H952" t="inlineStr"/>
       <c r="I952" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J952" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
